--- a/src/test/testdaten_update_adresse/Update Adresse - alles klein geschrieben.xlsx
+++ b/src/test/testdaten_update_adresse/Update Adresse - alles klein geschrieben.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_update_adresse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A098004-D74C-4C95-8C84-0CA2A854E524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2339B0E8-11D9-44FE-877F-3FF7054E6F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>deutschland</t>
   </si>
   <si>
-    <t>musterstraße</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>m100002</t>
+  </si>
+  <si>
+    <t>musterstrasse</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,7 +447,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -463,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -471,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -479,7 +479,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
